--- a/08_MAALUS_DELAY/Polarization.xlsx
+++ b/08_MAALUS_DELAY/Polarization.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E889A3-BDA1-4E7A-9CC9-D77D5A87BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094BE77-FD3F-4FB5-9E21-638D76588F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarizzazione" sheetId="1" r:id="rId1"/>
+    <sheet name="Exp. 1 - Regressione lineare " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t xml:space="preserve">Frequenza </t>
   </si>
@@ -46,9 +47,6 @@
   </si>
   <si>
     <t>V/V(0,0)</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>V_LED</t>
@@ -134,12 +132,111 @@
   <si>
     <t>ϑ_1 = 90°</t>
   </si>
+  <si>
+    <t>Polarizzatore</t>
+  </si>
+  <si>
+    <t>Lamina λ/4</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>Assente</t>
+  </si>
+  <si>
+    <t>Angolo polarizzatore</t>
+  </si>
+  <si>
+    <t>Angolo lamina λ/4</t>
+  </si>
+  <si>
+    <t>I [mV]</t>
+  </si>
+  <si>
+    <t>OUTPUT RIEPILOGO</t>
+  </si>
+  <si>
+    <t>Statistica della regressione</t>
+  </si>
+  <si>
+    <t>R multiplo</t>
+  </si>
+  <si>
+    <t>R al quadrato</t>
+  </si>
+  <si>
+    <t>R al quadrato corretto</t>
+  </si>
+  <si>
+    <t>Errore standard</t>
+  </si>
+  <si>
+    <t>Osservazioni</t>
+  </si>
+  <si>
+    <t>ANALISI VARIANZA</t>
+  </si>
+  <si>
+    <t>Regressione</t>
+  </si>
+  <si>
+    <t>Residuo</t>
+  </si>
+  <si>
+    <t>Totale</t>
+  </si>
+  <si>
+    <t>Intercetta</t>
+  </si>
+  <si>
+    <t>gdl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significatività F</t>
+  </si>
+  <si>
+    <t>Coefficienti</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>Valore di significatività</t>
+  </si>
+  <si>
+    <t>Inferiore 95%</t>
+  </si>
+  <si>
+    <t>Superiore 95%</t>
+  </si>
+  <si>
+    <t>Inferiore 95,0%</t>
+  </si>
+  <si>
+    <t>Superiore 95,0%</t>
+  </si>
+  <si>
+    <t>Variabile X 1</t>
+  </si>
+  <si>
+    <t>Dati fit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +261,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +280,14 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -210,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -392,11 +504,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -405,7 +537,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -478,7 +610,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -496,13 +628,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +654,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,6 +1088,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Dati sperimentali</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln>
               <a:noFill/>
@@ -1102,6 +1252,164 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D50A-43C8-A39E-2E42C2F0E513}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Dati fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Polarizzazione!$B$10:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exp. 1 - Regressione lineare '!$L$4:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96984631039295399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88302222155948906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58682408883346515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41317591116653485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11697777844051105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0153689607045831E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7524718414124466E-33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0153689607045793E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11697777844051097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41317591116653485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58682408883346493</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88302222155948884</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.96984631039295399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D50A-43C8-A39E-2E42C2F0E513}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1211,6 +1519,10 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -2419,7 +2731,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t> Intensità trasmessa relativa [(V/V_0]</a:t>
+                  <a:t> Intensità trasmessa relativa [V/V_0]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2495,22 +2807,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Esperimento 4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> - L</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>uce del LED con polarizzatore</a:t>
+              <a:t>Esperimento 4 - Luce del LED con polarizzatore</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2535,9 +2839,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -2577,7 +2881,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarizzazione!$B$109:$B$120</c:f>
+              <c:f>Polarizzazione!$B$110:$B$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2622,7 +2926,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarizzazione!$C$109:$C$120</c:f>
+              <c:f>Polarizzazione!$C$110:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2733,9 +3037,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -2795,9 +3099,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -2846,7 +3150,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2887,15 +3194,20 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Esperimento 4 - Luce del LED con polarizzatore e lamina quarto d'onda</a:t>
+              <a:t>Esperimento 4 - Luce del LED con polarizzatore e lamina </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t>λ/4</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2919,9 +3231,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -2961,7 +3273,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Polarizzazione!$E$109:$E$116</c:f>
+              <c:f>Polarizzazione!$E$110:$E$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2994,7 +3306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Polarizzazione!$F$109:$F$116</c:f>
+              <c:f>Polarizzazione!$F$110:$F$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3093,9 +3405,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -3155,9 +3467,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -3206,7 +3518,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -4368,10 +4683,10 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>246289</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8218714" cy="6012996"/>
+    <xdr:ext cx="8218714" cy="5257800"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="153993754" name="Chart 2" title="Grafico">
@@ -4400,9 +4715,9 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>5171</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>541</xdr:rowOff>
+      <xdr:rowOff>542</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7594147" cy="4022819"/>
+    <xdr:ext cx="7594147" cy="4016286"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="216103290" name="Chart 3" title="Grafico">
@@ -4490,14 +4805,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>789214</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4763,15 +5078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="11.5546875" customWidth="1"/>
     <col min="16" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4812,7 +5129,7 @@
     <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -4845,7 +5162,7 @@
     <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="9">
         <v>7</v>
@@ -4867,16 +5184,16 @@
     <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5353,7 +5670,7 @@
     </row>
     <row r="32" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -5376,16 +5693,16 @@
     </row>
     <row r="34" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34" s="12">
         <v>0</v>
@@ -5413,14 +5730,14 @@
     </row>
     <row r="36" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="2"/>
@@ -5429,16 +5746,16 @@
       <c r="A37" s="1"/>
       <c r="B37" s="22"/>
       <c r="C37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="F37" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -5573,7 +5890,7 @@
     <row r="47" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -5586,7 +5903,7 @@
     <row r="49" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
@@ -5596,14 +5913,14 @@
     <row r="50" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="2"/>
@@ -5718,7 +6035,7 @@
     <row r="56" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" s="40"/>
       <c r="D56" s="41"/>
@@ -5728,10 +6045,10 @@
     <row r="57" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="1"/>
@@ -5970,7 +6287,7 @@
     <row r="73" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -5985,14 +6302,14 @@
     <row r="74" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" s="44"/>
       <c r="G74" s="2"/>
@@ -6638,7 +6955,7 @@
     <row r="101" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
       <c r="B101" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
@@ -6653,14 +6970,14 @@
     <row r="102" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="2"/>
@@ -6716,7 +7033,7 @@
     </row>
     <row r="106" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B106" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6742,17 +7059,16 @@
     </row>
     <row r="108" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E108" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>7</v>
+        <v>35</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -6761,18 +7077,18 @@
       <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="13">
-        <v>0</v>
-      </c>
-      <c r="C109" s="25">
-        <v>480</v>
+      <c r="B109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="13">
-        <v>0</v>
-      </c>
-      <c r="F109" s="25">
-        <v>432</v>
+      <c r="E109" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -6782,14 +7098,14 @@
     </row>
     <row r="110" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B110" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C110" s="25">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="13">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F110" s="25">
         <v>432</v>
@@ -6802,17 +7118,17 @@
     </row>
     <row r="111" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B111" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C111" s="25">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="13">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F111" s="25">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -6822,14 +7138,14 @@
     </row>
     <row r="112" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B112" s="13">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C112" s="25">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="13">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="F112" s="25">
         <v>420</v>
@@ -6842,17 +7158,17 @@
     </row>
     <row r="113" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B113" s="13">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C113" s="25">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="13">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="F113" s="25">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -6862,17 +7178,17 @@
     </row>
     <row r="114" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="13">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C114" s="25">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="13">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="F114" s="25">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6882,17 +7198,17 @@
     </row>
     <row r="115" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="13">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C115" s="25">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="13">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F115" s="25">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6902,14 +7218,14 @@
     </row>
     <row r="116" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B116" s="13">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C116" s="25">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="13">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="F116" s="25">
         <v>420</v>
@@ -6922,14 +7238,18 @@
     </row>
     <row r="117" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B117" s="13">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C117" s="25">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="E117" s="13">
+        <v>315</v>
+      </c>
+      <c r="F117" s="25">
+        <v>420</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="3"/>
@@ -6938,10 +7258,10 @@
     </row>
     <row r="118" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B118" s="13">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C118" s="25">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6954,14 +7274,12 @@
     </row>
     <row r="119" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B119" s="13">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="C119" s="25">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="3"/>
@@ -6970,14 +7288,18 @@
     </row>
     <row r="120" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B120" s="13">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="C120" s="25">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
+      <c r="E120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="3"/>
@@ -6985,11 +7307,19 @@
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="B121" s="13">
+        <v>330</v>
+      </c>
+      <c r="C121" s="25">
+        <v>468</v>
+      </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
+      <c r="E121" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="3"/>
@@ -7009,8 +7339,6 @@
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -7021,8 +7349,6 @@
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -18057,4 +18383,482 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C32432-76EC-41FA-BC55-CDD3D9D091AE}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="K3" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="48">
+        <v>0.99232681499069819</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>M4/$M$4</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>K4*$B$18</f>
+        <v>106.20097749896399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0.9847125077495833</v>
+      </c>
+      <c r="K5">
+        <v>0.9698463103929541</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L23" si="0">M5/$M$4</f>
+        <v>0.96984631039295399</v>
+      </c>
+      <c r="M5">
+        <f>K5*$B$18</f>
+        <v>102.99862618749536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0.98386320262456017</v>
+      </c>
+      <c r="K6">
+        <v>0.88302222155948906</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.88302222155948906</v>
+      </c>
+      <c r="M6">
+        <f>K6*$B$18</f>
+        <v>93.777823082924499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="48">
+        <v>4.9191175864800556</v>
+      </c>
+      <c r="K7">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="M7">
+        <f>K7*$B$18</f>
+        <v>79.650733124223009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="49">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.58682408883346515</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.58682408883346515</v>
+      </c>
+      <c r="M8">
+        <f>K8*$B$18</f>
+        <v>62.32129185405288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="M9">
+        <f>K9*$B$18</f>
+        <v>53.100488749482011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="M10">
+        <f>K10*$B$18</f>
+        <v>43.879685644911113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="M11">
+        <f>K11*$B$18</f>
+        <v>26.550244374741009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="48">
+        <v>1</v>
+      </c>
+      <c r="C12" s="48">
+        <v>28055.635959066887</v>
+      </c>
+      <c r="D12" s="48">
+        <v>28055.635959066887</v>
+      </c>
+      <c r="E12" s="48">
+        <v>1159.4331397950073</v>
+      </c>
+      <c r="F12" s="48">
+        <v>8.5174583404405165E-18</v>
+      </c>
+      <c r="K12">
+        <v>0.11697777844051105</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.11697777844051105</v>
+      </c>
+      <c r="M12">
+        <f>K12*$B$18</f>
+        <v>12.423154416039509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="48">
+        <v>18</v>
+      </c>
+      <c r="C13" s="48">
+        <v>435.55892093311257</v>
+      </c>
+      <c r="D13" s="48">
+        <v>24.197717829617364</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="K13">
+        <v>3.0153689607045831E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>3.0153689607045831E-2</v>
+      </c>
+      <c r="M13">
+        <f>K13*$B$18</f>
+        <v>3.2023513114686186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="49">
+        <v>19</v>
+      </c>
+      <c r="C14" s="49">
+        <v>28491.194879999999</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="K14">
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>3.7524718414124466E-33</v>
+      </c>
+      <c r="M14">
+        <f>K14*$B$18</f>
+        <v>3.9851617759533926E-31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>3.0153689607045793E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3.0153689607045793E-2</v>
+      </c>
+      <c r="M15">
+        <f>K15*$B$18</f>
+        <v>3.2023513114686146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16">
+        <v>0.11697777844051097</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0.11697777844051097</v>
+      </c>
+      <c r="M16">
+        <f>K16*$B$18</f>
+        <v>12.4231544160395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="48">
+        <v>1.468486813043981</v>
+      </c>
+      <c r="C17" s="48">
+        <v>1.9725846760684518</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0.74444804872499282</v>
+      </c>
+      <c r="E17" s="48">
+        <v>0.46621421592254753</v>
+      </c>
+      <c r="F17" s="48">
+        <v>-2.675759809149957</v>
+      </c>
+      <c r="G17" s="48">
+        <v>5.612733435237919</v>
+      </c>
+      <c r="H17" s="48">
+        <v>-2.675759809149957</v>
+      </c>
+      <c r="I17" s="48">
+        <v>5.612733435237919</v>
+      </c>
+      <c r="K17">
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="M17">
+        <f>K17*$B$18</f>
+        <v>26.550244374740974</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="52">
+        <v>106.20097749896399</v>
+      </c>
+      <c r="C18" s="52">
+        <v>3.1189302269608725</v>
+      </c>
+      <c r="D18" s="49">
+        <v>34.050449920595852</v>
+      </c>
+      <c r="E18" s="49">
+        <v>8.5174583404406983E-18</v>
+      </c>
+      <c r="F18" s="49">
+        <v>99.648348243167774</v>
+      </c>
+      <c r="G18" s="49">
+        <v>112.75360675475993</v>
+      </c>
+      <c r="H18" s="49">
+        <v>99.648348243167774</v>
+      </c>
+      <c r="I18" s="49">
+        <v>112.75360675475993</v>
+      </c>
+      <c r="K18">
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="M18">
+        <f>K18*$B$18</f>
+        <v>43.879685644911113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0.58682408883346493</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0.58682408883346493</v>
+      </c>
+      <c r="M19">
+        <f>K19*$B$18</f>
+        <v>62.321291854052859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="M20">
+        <f>K20*$B$18</f>
+        <v>79.650733124223009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0.88302222155948884</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.88302222155948884</v>
+      </c>
+      <c r="M21">
+        <f>K21*$B$18</f>
+        <v>93.777823082924471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0.9698463103929541</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0.96984631039295399</v>
+      </c>
+      <c r="M22">
+        <f>K22*$B$18</f>
+        <v>102.99862618749536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f>K23*$B$18</f>
+        <v>106.20097749896399</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/08_MAALUS_DELAY/Polarization.xlsx
+++ b/08_MAALUS_DELAY/Polarization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giova\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094BE77-FD3F-4FB5-9E21-638D76588F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6357740-50C7-483A-8D5F-A91ABB604F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Polarizzazione" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,16 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi4gd1GRFzVqBwHS0BKFvpiSTxPLg=="/>
     </ext>
@@ -86,15 +96,6 @@
   </si>
   <si>
     <t>Assi ottici dell'ellisse</t>
-  </si>
-  <si>
-    <t>ϑ_1 = 0°, 90°</t>
-  </si>
-  <si>
-    <t>ϑ_1 = 45°, 135°</t>
-  </si>
-  <si>
-    <t>ϑ_1 ≠ 0°, 45°, 90°, 135°</t>
   </si>
   <si>
     <t>ϑ_1 = 60°</t>
@@ -231,12 +232,87 @@
   <si>
     <t>Dati fit</t>
   </si>
+  <si>
+    <r>
+      <t>ϑ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 0°, 90°</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ϑ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 45°, 135°</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ϑ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ≠ 0°, 45°, 90°, 135°</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,6 +364,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -528,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -537,9 +620,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -585,18 +665,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -606,54 +679,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -667,8 +697,70 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,40 +793,42 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t>Esperimento 3 - Lamina </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="el-GR"/>
               <a:t>λ/4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t> - </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1100"/>
-              <a:t>ϑ_1 = </a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t>ϑ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1100"/>
+              <a:rPr lang="el-GR" sz="700"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
               <a:t>3</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1100"/>
+              <a:rPr lang="el-GR"/>
               <a:t>0</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1100"/>
+              <a:rPr lang="it-IT"/>
               <a:t>°</a:t>
             </a:r>
           </a:p>
@@ -846,7 +940,7 @@
             <c:numRef>
               <c:f>Polarizzazione!$D$76:$D$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.61971830985915499</c:v>
@@ -1004,7 +1098,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1031,7 +1125,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr b="0">
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1063,16 +1157,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1600"/>
-              <a:t>Esperimento</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1600" baseline="0"/>
-              <a:t> 1 - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1600"/>
-              <a:t>Legge di Malus</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>Esperimento 1 - Legge di Malus</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1538,7 +1624,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200" b="0">
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1583,7 +1669,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="el-GR"/>
-              <a:t>ϑ_1 = 45°</a:t>
+              <a:t>ϑ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t> = 45°</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -1838,7 +1932,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200" b="0">
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -1867,30 +1961,34 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1200"/>
-              <a:t>Esperimento 3</a:t>
+              <a:rPr lang="it-IT"/>
+              <a:t>Esperimento 3 - Lamina </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1200" baseline="0"/>
-              <a:t> - Lamina </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="el-GR" sz="1200" baseline="0"/>
+              <a:rPr lang="el-GR"/>
               <a:t>λ/4</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+              <a:rPr lang="it-IT"/>
               <a:t> - </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1200"/>
-              <a:t>ϑ_1 = 60</a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t>ϑ</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="it-IT" sz="1200"/>
+              <a:rPr lang="el-GR" sz="700"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t> = 60</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
               <a:t>°</a:t>
             </a:r>
           </a:p>
@@ -2002,7 +2100,7 @@
             <c:numRef>
               <c:f>Polarizzazione!$F$76:$F$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.6619718309859155</c:v>
@@ -2171,7 +2269,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2198,7 +2296,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr b="0">
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -2243,7 +2341,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="el-GR"/>
-              <a:t>ϑ_1 ≠ 0°, 45°, 90°, 135°</a:t>
+              <a:t>ϑ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR"/>
+              <a:t> ≠ 0°, 45°, 90°, 135°</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2366,7 +2472,7 @@
             <c:numRef>
               <c:f>Polarizzazione!$D$76:$D$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.61971830985915499</c:v>
@@ -2560,7 +2666,7 @@
             <c:numRef>
               <c:f>Polarizzazione!$F$76:$F$99</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0.6619718309859155</c:v>
@@ -2738,7 +2844,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2764,7 +2870,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1200" b="0">
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -2807,7 +2913,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -2839,7 +2945,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -3037,7 +3143,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -3099,7 +3205,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -3151,7 +3257,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -3194,7 +3300,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -3231,7 +3337,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -3405,7 +3511,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -3467,7 +3573,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -3519,7 +3625,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -5128,12 +5234,12 @@
     </row>
     <row r="4" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -5147,13 +5253,13 @@
     </row>
     <row r="6" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -5161,13 +5267,13 @@
     </row>
     <row r="7" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="2"/>
@@ -5183,17 +5289,17 @@
     </row>
     <row r="9" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5204,18 +5310,18 @@
     </row>
     <row r="10" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>107</v>
       </c>
-      <c r="D10" s="14">
-        <f>C10/$C$10</f>
+      <c r="D10" s="13">
+        <f t="shared" ref="D10:D29" si="0">C10/$C$10</f>
         <v>1</v>
       </c>
-      <c r="E10" s="15">
-        <f t="shared" ref="E10:E29" si="0">(COS(B10*PI()/180))^2</f>
+      <c r="E10" s="55">
+        <f t="shared" ref="E10:E29" si="1">(COS(B10*PI()/180))^2</f>
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
@@ -5227,18 +5333,18 @@
     </row>
     <row r="11" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>106</v>
       </c>
-      <c r="D11" s="14">
-        <f>C11/$C$10</f>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
         <v>0.99065420560747663</v>
       </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
+      <c r="E11" s="55">
+        <f t="shared" si="1"/>
         <v>0.9698463103929541</v>
       </c>
       <c r="F11" s="2"/>
@@ -5250,18 +5356,18 @@
     </row>
     <row r="12" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>20</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>99.2</v>
       </c>
-      <c r="D12" s="14">
-        <f>C12/$C$10</f>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
         <v>0.92710280373831777</v>
       </c>
-      <c r="E12" s="15">
-        <f t="shared" si="0"/>
+      <c r="E12" s="55">
+        <f t="shared" si="1"/>
         <v>0.88302222155948906</v>
       </c>
       <c r="F12" s="2"/>
@@ -5273,18 +5379,18 @@
     </row>
     <row r="13" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>30</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>88</v>
       </c>
-      <c r="D13" s="14">
-        <f>C13/$C$10</f>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
         <v>0.82242990654205606</v>
       </c>
-      <c r="E13" s="15">
-        <f t="shared" si="0"/>
+      <c r="E13" s="55">
+        <f t="shared" si="1"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="F13" s="2"/>
@@ -5296,18 +5402,18 @@
     </row>
     <row r="14" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>40</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>68.8</v>
       </c>
-      <c r="D14" s="14">
-        <f>C14/$C$10</f>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
         <v>0.64299065420560741</v>
       </c>
-      <c r="E14" s="15">
-        <f t="shared" si="0"/>
+      <c r="E14" s="55">
+        <f t="shared" si="1"/>
         <v>0.58682408883346515</v>
       </c>
       <c r="F14" s="2"/>
@@ -5319,18 +5425,18 @@
     </row>
     <row r="15" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>45</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>59.2</v>
       </c>
-      <c r="D15" s="14">
-        <f>C15/$C$10</f>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
         <v>0.55327102803738315</v>
       </c>
-      <c r="E15" s="15">
-        <f t="shared" si="0"/>
+      <c r="E15" s="55">
+        <f t="shared" si="1"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="F15" s="2"/>
@@ -5342,18 +5448,18 @@
     </row>
     <row r="16" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>50</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>52</v>
       </c>
-      <c r="D16" s="14">
-        <f>C16/$C$10</f>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
         <v>0.48598130841121495</v>
       </c>
-      <c r="E16" s="15">
-        <f t="shared" si="0"/>
+      <c r="E16" s="55">
+        <f t="shared" si="1"/>
         <v>0.41317591116653485</v>
       </c>
       <c r="F16" s="2"/>
@@ -5365,18 +5471,18 @@
     </row>
     <row r="17" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>60</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>35.200000000000003</v>
       </c>
-      <c r="D17" s="14">
-        <f>C17/$C$10</f>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
         <v>0.32897196261682243</v>
       </c>
-      <c r="E17" s="15">
-        <f t="shared" si="0"/>
+      <c r="E17" s="55">
+        <f t="shared" si="1"/>
         <v>0.25000000000000011</v>
       </c>
       <c r="F17" s="2"/>
@@ -5387,18 +5493,18 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>70</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>16.8</v>
       </c>
-      <c r="D18" s="14">
-        <f>C18/$C$10</f>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
         <v>0.15700934579439252</v>
       </c>
-      <c r="E18" s="15">
-        <f t="shared" si="0"/>
+      <c r="E18" s="55">
+        <f t="shared" si="1"/>
         <v>0.11697777844051105</v>
       </c>
       <c r="F18" s="2"/>
@@ -5409,18 +5515,18 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>80</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>6.2</v>
       </c>
-      <c r="D19" s="14">
-        <f>C19/$C$10</f>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
         <v>5.7943925233644861E-2</v>
       </c>
-      <c r="E19" s="15">
-        <f t="shared" si="0"/>
+      <c r="E19" s="55">
+        <f t="shared" si="1"/>
         <v>3.0153689607045831E-2</v>
       </c>
       <c r="F19" s="2"/>
@@ -5431,18 +5537,18 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>90</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0.72</v>
       </c>
-      <c r="D20" s="14">
-        <f>C20/$C$10</f>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
         <v>6.7289719626168224E-3</v>
       </c>
-      <c r="E20" s="15">
-        <f t="shared" si="0"/>
+      <c r="E20" s="55">
+        <f t="shared" si="1"/>
         <v>3.7524718414124473E-33</v>
       </c>
       <c r="F20" s="2"/>
@@ -5453,18 +5559,18 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>100</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>2.64</v>
       </c>
-      <c r="D21" s="14">
-        <f>C21/$C$10</f>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
         <v>2.4672897196261683E-2</v>
       </c>
-      <c r="E21" s="15">
-        <f t="shared" si="0"/>
+      <c r="E21" s="55">
+        <f t="shared" si="1"/>
         <v>3.0153689607045793E-2</v>
       </c>
       <c r="F21" s="2"/>
@@ -5475,18 +5581,18 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>110</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>9.52</v>
       </c>
-      <c r="D22" s="14">
-        <f>C22/$C$10</f>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
         <v>8.8971962616822428E-2</v>
       </c>
-      <c r="E22" s="15">
-        <f t="shared" si="0"/>
+      <c r="E22" s="55">
+        <f t="shared" si="1"/>
         <v>0.11697777844051097</v>
       </c>
       <c r="F22" s="2"/>
@@ -5497,18 +5603,18 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>120</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>22.4</v>
       </c>
-      <c r="D23" s="14">
-        <f>C23/$C$10</f>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
         <v>0.20934579439252335</v>
       </c>
-      <c r="E23" s="15">
-        <f t="shared" si="0"/>
+      <c r="E23" s="55">
+        <f t="shared" si="1"/>
         <v>0.24999999999999978</v>
       </c>
       <c r="F23" s="2"/>
@@ -5519,18 +5625,18 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>130</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>38.4</v>
       </c>
-      <c r="D24" s="14">
-        <f>C24/$C$10</f>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
         <v>0.35887850467289717</v>
       </c>
-      <c r="E24" s="15">
-        <f t="shared" si="0"/>
+      <c r="E24" s="55">
+        <f t="shared" si="1"/>
         <v>0.41317591116653485</v>
       </c>
       <c r="F24" s="2"/>
@@ -5541,18 +5647,18 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>140</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <v>56.8</v>
       </c>
-      <c r="D25" s="14">
-        <f>C25/$C$10</f>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
         <v>0.53084112149532703</v>
       </c>
-      <c r="E25" s="15">
-        <f t="shared" si="0"/>
+      <c r="E25" s="55">
+        <f t="shared" si="1"/>
         <v>0.58682408883346493</v>
       </c>
       <c r="F25" s="2"/>
@@ -5563,18 +5669,18 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>150</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>74.400000000000006</v>
       </c>
-      <c r="D26" s="14">
-        <f>C26/$C$10</f>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
         <v>0.69532710280373833</v>
       </c>
-      <c r="E26" s="15">
-        <f t="shared" si="0"/>
+      <c r="E26" s="55">
+        <f t="shared" si="1"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="F26" s="2"/>
@@ -5585,18 +5691,18 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>160</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>91.2</v>
       </c>
-      <c r="D27" s="14">
-        <f>C27/$C$10</f>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
         <v>0.85233644859813085</v>
       </c>
-      <c r="E27" s="15">
-        <f t="shared" si="0"/>
+      <c r="E27" s="55">
+        <f t="shared" si="1"/>
         <v>0.88302222155948884</v>
       </c>
       <c r="F27" s="2"/>
@@ -5607,18 +5713,18 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>170</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>103</v>
       </c>
-      <c r="D28" s="14">
-        <f>C28/$C$10</f>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
         <v>0.96261682242990654</v>
       </c>
-      <c r="E28" s="15">
-        <f t="shared" si="0"/>
+      <c r="E28" s="55">
+        <f t="shared" si="1"/>
         <v>0.9698463103929541</v>
       </c>
       <c r="F28" s="2"/>
@@ -5629,18 +5735,18 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>180</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>107</v>
       </c>
-      <c r="D29" s="14">
-        <f>C29/$C$10</f>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E29" s="15">
-        <f t="shared" si="0"/>
+      <c r="E29" s="55">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="2"/>
@@ -5669,13 +5775,13 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
@@ -5692,19 +5798,19 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>0</v>
       </c>
       <c r="G34" s="2"/>
@@ -5729,146 +5835,146 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="22"/>
+      <c r="B36" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="41"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="45" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>27</v>
+      <c r="F37" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>30</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="18">
         <v>58.8</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="14">
         <v>60</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="14">
         <v>1.6</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="14">
         <v>150</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>45</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="14">
         <v>58.8</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="14">
         <v>86</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>177</v>
       </c>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="13">
+      <c r="B40" s="12">
         <v>60</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="14">
         <v>60</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="14">
         <v>120</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="14">
         <v>1.6</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="14">
         <v>210</v>
       </c>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="13">
+      <c r="B41" s="12">
         <v>90</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="14">
         <v>62.4</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="14">
         <v>184</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>94</v>
       </c>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>120</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="14">
         <v>60</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>60</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>1.6</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <v>150</v>
       </c>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>160</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="14">
         <v>52.8</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="14">
         <v>136</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>2</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>230</v>
       </c>
       <c r="G43" s="2"/>
@@ -5889,40 +5995,40 @@
     <row r="46" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
     </row>
     <row r="48" spans="1:12" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="B49" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
-      <c r="B50" s="47" t="s">
-        <v>27</v>
+      <c r="B50" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D50" s="36"/>
-      <c r="E50" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="38"/>
+      <c r="E50" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="39"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="3"/>
@@ -5932,16 +6038,16 @@
     <row r="51" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="2"/>
@@ -5952,19 +6058,19 @@
     </row>
     <row r="52" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
-      <c r="B52" s="24">
+      <c r="B52" s="22">
         <v>0</v>
       </c>
-      <c r="C52" s="28">
+      <c r="C52" s="24">
         <v>56.8</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="56">
         <v>1</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="25">
         <v>56.8</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="55">
         <f>E52/$C$52</f>
         <v>1</v>
       </c>
@@ -5976,20 +6082,20 @@
     </row>
     <row r="53" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
-      <c r="B53" s="24">
+      <c r="B53" s="22">
         <v>90</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="26">
         <v>1.6</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="57">
         <f>C53/$C$52</f>
         <v>2.8169014084507046E-2</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <v>1.6</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="55">
         <f>E53/$C$52</f>
         <v>2.8169014084507046E-2</v>
       </c>
@@ -6001,20 +6107,20 @@
     </row>
     <row r="54" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>45</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="14">
         <v>31.2</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="55">
         <f>C54/$C$52</f>
         <v>0.54929577464788737</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="14">
         <v>31.2</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="55">
         <f>E54/$C$52</f>
         <v>0.54929577464788737</v>
       </c>
@@ -6034,33 +6140,33 @@
     </row>
     <row r="56" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
+      <c r="B56" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="35"/>
+      <c r="B57" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="45"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="36"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="1"/>
@@ -6068,14 +6174,14 @@
     </row>
     <row r="59" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="24">
+      <c r="B59" s="22">
         <v>0</v>
       </c>
-      <c r="C59" s="28">
+      <c r="C59" s="24">
         <v>31.2</v>
       </c>
-      <c r="D59" s="28">
-        <f>C59/$C$52</f>
+      <c r="D59" s="56">
+        <f t="shared" ref="D59:D71" si="2">C59/$C$52</f>
         <v>0.54929577464788737</v>
       </c>
       <c r="E59" s="1"/>
@@ -6083,14 +6189,14 @@
     </row>
     <row r="60" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="24">
+      <c r="B60" s="22">
         <v>30</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="26">
         <v>27.6</v>
       </c>
-      <c r="D60" s="19">
-        <f>C60/$C$52</f>
+      <c r="D60" s="57">
+        <f t="shared" si="2"/>
         <v>0.48591549295774655</v>
       </c>
       <c r="E60" s="1"/>
@@ -6098,14 +6204,14 @@
     </row>
     <row r="61" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>60</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <v>25.6</v>
       </c>
-      <c r="D61" s="15">
-        <f>C61/$C$52</f>
+      <c r="D61" s="55">
+        <f t="shared" si="2"/>
         <v>0.45070422535211274</v>
       </c>
       <c r="E61" s="1"/>
@@ -6113,14 +6219,14 @@
     </row>
     <row r="62" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="13">
+      <c r="B62" s="12">
         <v>90</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="14">
         <v>25.2</v>
       </c>
-      <c r="D62" s="15">
-        <f>C62/$C$52</f>
+      <c r="D62" s="55">
+        <f t="shared" si="2"/>
         <v>0.44366197183098594</v>
       </c>
       <c r="E62" s="2"/>
@@ -6128,14 +6234,14 @@
     </row>
     <row r="63" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="13">
+      <c r="B63" s="12">
         <v>120</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="14">
         <v>27.6</v>
       </c>
-      <c r="D63" s="15">
-        <f>C63/$C$52</f>
+      <c r="D63" s="55">
+        <f t="shared" si="2"/>
         <v>0.48591549295774655</v>
       </c>
       <c r="E63" s="2"/>
@@ -6143,14 +6249,14 @@
     </row>
     <row r="64" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="13">
+      <c r="B64" s="12">
         <v>150</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="14">
         <v>30</v>
       </c>
-      <c r="D64" s="15">
-        <f>C64/$C$52</f>
+      <c r="D64" s="55">
+        <f t="shared" si="2"/>
         <v>0.52816901408450712</v>
       </c>
       <c r="E64" s="2"/>
@@ -6158,14 +6264,14 @@
     </row>
     <row r="65" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="13">
+      <c r="B65" s="12">
         <v>180</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="14">
         <v>31.2</v>
       </c>
-      <c r="D65" s="15">
-        <f>C65/$C$52</f>
+      <c r="D65" s="55">
+        <f t="shared" si="2"/>
         <v>0.54929577464788737</v>
       </c>
       <c r="E65" s="2"/>
@@ -6173,14 +6279,14 @@
     </row>
     <row r="66" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="13">
+      <c r="B66" s="12">
         <v>210</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="14">
         <v>27.6</v>
       </c>
-      <c r="D66" s="15">
-        <f>C66/$C$52</f>
+      <c r="D66" s="55">
+        <f t="shared" si="2"/>
         <v>0.48591549295774655</v>
       </c>
       <c r="E66" s="2"/>
@@ -6188,14 +6294,14 @@
     </row>
     <row r="67" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="13">
+      <c r="B67" s="12">
         <v>240</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="14">
         <v>25.4</v>
       </c>
-      <c r="D67" s="15">
-        <f>C67/$C$52</f>
+      <c r="D67" s="55">
+        <f t="shared" si="2"/>
         <v>0.44718309859154931</v>
       </c>
       <c r="E67" s="2"/>
@@ -6203,14 +6309,14 @@
     </row>
     <row r="68" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="13">
+      <c r="B68" s="12">
         <v>270</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="14">
         <v>25.2</v>
       </c>
-      <c r="D68" s="15">
-        <f>C68/$C$52</f>
+      <c r="D68" s="55">
+        <f t="shared" si="2"/>
         <v>0.44366197183098594</v>
       </c>
       <c r="E68" s="2"/>
@@ -6218,14 +6324,14 @@
     </row>
     <row r="69" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="13">
+      <c r="B69" s="12">
         <v>300</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="14">
         <v>27.6</v>
       </c>
-      <c r="D69" s="15">
-        <f>C69/$C$52</f>
+      <c r="D69" s="55">
+        <f t="shared" si="2"/>
         <v>0.48591549295774655</v>
       </c>
       <c r="E69" s="2"/>
@@ -6233,14 +6339,14 @@
     </row>
     <row r="70" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
-      <c r="B70" s="13">
+      <c r="B70" s="12">
         <v>330</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="14">
         <v>30</v>
       </c>
-      <c r="D70" s="15">
-        <f>C70/$C$52</f>
+      <c r="D70" s="55">
+        <f t="shared" si="2"/>
         <v>0.52816901408450712</v>
       </c>
       <c r="E70" s="2"/>
@@ -6253,14 +6359,14 @@
     </row>
     <row r="71" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
-      <c r="B71" s="13">
+      <c r="B71" s="12">
         <v>360</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="14">
         <v>31.2</v>
       </c>
-      <c r="D71" s="15">
-        <f>C71/$C$52</f>
+      <c r="D71" s="55">
+        <f t="shared" si="2"/>
         <v>0.54929577464788737</v>
       </c>
       <c r="E71" s="2"/>
@@ -6286,13 +6392,13 @@
     </row>
     <row r="73" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
-      <c r="B73" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
+      <c r="B73" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="3"/>
@@ -6301,17 +6407,17 @@
     </row>
     <row r="74" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
-      <c r="B74" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="42" t="s">
+      <c r="B74" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="44"/>
+      <c r="C74" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="47"/>
+      <c r="E74" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="48"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
@@ -6321,16 +6427,16 @@
     <row r="75" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="36"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G75" s="2"/>
@@ -6341,21 +6447,21 @@
     </row>
     <row r="76" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
-      <c r="B76" s="24">
+      <c r="B76" s="22">
         <v>0</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C76" s="24">
         <v>35.200000000000003</v>
       </c>
-      <c r="D76" s="28">
-        <f>C76/$C$52</f>
+      <c r="D76" s="56">
+        <f t="shared" ref="D76:D99" si="3">C76/$C$52</f>
         <v>0.61971830985915499</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="25">
         <v>37.6</v>
       </c>
-      <c r="F76" s="15">
-        <f>E76/$C$52</f>
+      <c r="F76" s="55">
+        <f t="shared" ref="F76:F99" si="4">E76/$C$52</f>
         <v>0.6619718309859155</v>
       </c>
       <c r="G76" s="2"/>
@@ -6366,21 +6472,21 @@
     </row>
     <row r="77" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
-      <c r="B77" s="24">
+      <c r="B77" s="22">
         <v>15</v>
       </c>
-      <c r="C77" s="28">
+      <c r="C77" s="24">
         <v>39.6</v>
       </c>
-      <c r="D77" s="28">
-        <f>C77/$C$52</f>
+      <c r="D77" s="56">
+        <f t="shared" si="3"/>
         <v>0.69718309859154937</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="25">
         <v>30.8</v>
       </c>
-      <c r="F77" s="15">
-        <f>E77/$C$52</f>
+      <c r="F77" s="55">
+        <f t="shared" si="4"/>
         <v>0.54225352112676062</v>
       </c>
       <c r="G77" s="2"/>
@@ -6391,21 +6497,21 @@
     </row>
     <row r="78" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
-      <c r="B78" s="24">
+      <c r="B78" s="22">
         <v>30</v>
       </c>
-      <c r="C78" s="28">
+      <c r="C78" s="24">
         <v>40.799999999999997</v>
       </c>
-      <c r="D78" s="28">
-        <f>C78/$C$52</f>
+      <c r="D78" s="56">
+        <f t="shared" si="3"/>
         <v>0.71830985915492951</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="25">
         <v>23.6</v>
       </c>
-      <c r="F78" s="15">
-        <f>E78/$C$52</f>
+      <c r="F78" s="55">
+        <f t="shared" si="4"/>
         <v>0.41549295774647893</v>
       </c>
       <c r="G78" s="2"/>
@@ -6416,21 +6522,21 @@
     </row>
     <row r="79" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
-      <c r="B79" s="24">
+      <c r="B79" s="22">
         <v>45</v>
       </c>
-      <c r="C79" s="28">
+      <c r="C79" s="24">
         <v>38.799999999999997</v>
       </c>
-      <c r="D79" s="28">
-        <f>C79/$C$52</f>
+      <c r="D79" s="56">
+        <f t="shared" si="3"/>
         <v>0.68309859154929575</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="25">
         <v>17.2</v>
       </c>
-      <c r="F79" s="15">
-        <f>E79/$C$52</f>
+      <c r="F79" s="55">
+        <f t="shared" si="4"/>
         <v>0.30281690140845069</v>
       </c>
       <c r="G79" s="2"/>
@@ -6441,21 +6547,21 @@
     </row>
     <row r="80" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
-      <c r="B80" s="24">
+      <c r="B80" s="22">
         <v>60</v>
       </c>
-      <c r="C80" s="28">
+      <c r="C80" s="24">
         <v>34</v>
       </c>
-      <c r="D80" s="28">
-        <f>C80/$C$52</f>
+      <c r="D80" s="56">
+        <f t="shared" si="3"/>
         <v>0.59859154929577463</v>
       </c>
-      <c r="E80" s="29">
+      <c r="E80" s="25">
         <v>14</v>
       </c>
-      <c r="F80" s="15">
-        <f>E80/$C$52</f>
+      <c r="F80" s="55">
+        <f t="shared" si="4"/>
         <v>0.24647887323943662</v>
       </c>
       <c r="G80" s="2"/>
@@ -6466,21 +6572,21 @@
     </row>
     <row r="81" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
-      <c r="B81" s="24">
+      <c r="B81" s="22">
         <v>75</v>
       </c>
-      <c r="C81" s="28">
+      <c r="C81" s="24">
         <v>27.2</v>
       </c>
-      <c r="D81" s="28">
-        <f>C81/$C$52</f>
+      <c r="D81" s="56">
+        <f t="shared" si="3"/>
         <v>0.47887323943661975</v>
       </c>
-      <c r="E81" s="29">
+      <c r="E81" s="25">
         <v>14</v>
       </c>
-      <c r="F81" s="15">
-        <f>E81/$C$52</f>
+      <c r="F81" s="55">
+        <f t="shared" si="4"/>
         <v>0.24647887323943662</v>
       </c>
       <c r="G81" s="2"/>
@@ -6491,21 +6597,21 @@
     </row>
     <row r="82" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
-      <c r="B82" s="21">
+      <c r="B82" s="20">
         <v>90</v>
       </c>
-      <c r="C82" s="19">
+      <c r="C82" s="18">
         <v>21.2</v>
       </c>
-      <c r="D82" s="19">
-        <f>C82/$C$52</f>
+      <c r="D82" s="57">
+        <f t="shared" si="3"/>
         <v>0.37323943661971831</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="14">
         <v>18</v>
       </c>
-      <c r="F82" s="15">
-        <f>E82/$C$52</f>
+      <c r="F82" s="55">
+        <f t="shared" si="4"/>
         <v>0.31690140845070425</v>
       </c>
       <c r="G82" s="2"/>
@@ -6516,21 +6622,21 @@
     </row>
     <row r="83" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
-      <c r="B83" s="13">
+      <c r="B83" s="12">
         <v>105</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="14">
         <v>16.399999999999999</v>
       </c>
-      <c r="D83" s="15">
-        <f>C83/$C$52</f>
+      <c r="D83" s="55">
+        <f t="shared" si="3"/>
         <v>0.28873239436619719</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="14">
         <v>24.8</v>
       </c>
-      <c r="F83" s="15">
-        <f>E83/$C$52</f>
+      <c r="F83" s="55">
+        <f t="shared" si="4"/>
         <v>0.43661971830985918</v>
       </c>
       <c r="G83" s="2"/>
@@ -6541,21 +6647,21 @@
     </row>
     <row r="84" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
-      <c r="B84" s="13">
+      <c r="B84" s="12">
         <v>120</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="14">
         <v>14.8</v>
       </c>
-      <c r="D84" s="15">
-        <f>C84/$C$52</f>
+      <c r="D84" s="55">
+        <f t="shared" si="3"/>
         <v>0.26056338028169018</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="14">
         <v>32.4</v>
       </c>
-      <c r="F84" s="15">
-        <f>E84/$C$52</f>
+      <c r="F84" s="55">
+        <f t="shared" si="4"/>
         <v>0.57042253521126762</v>
       </c>
       <c r="G84" s="2"/>
@@ -6566,21 +6672,21 @@
     </row>
     <row r="85" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
-      <c r="B85" s="13">
+      <c r="B85" s="12">
         <v>135</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="14">
         <v>17.2</v>
       </c>
-      <c r="D85" s="15">
-        <f>C85/$C$52</f>
+      <c r="D85" s="55">
+        <f t="shared" si="3"/>
         <v>0.30281690140845069</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="14">
         <v>38.799999999999997</v>
       </c>
-      <c r="F85" s="15">
-        <f>E85/$C$52</f>
+      <c r="F85" s="55">
+        <f t="shared" si="4"/>
         <v>0.68309859154929575</v>
       </c>
       <c r="G85" s="2"/>
@@ -6591,21 +6697,21 @@
     </row>
     <row r="86" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
-      <c r="B86" s="13">
+      <c r="B86" s="12">
         <v>150</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="14">
         <v>22</v>
       </c>
-      <c r="D86" s="15">
-        <f>C86/$C$52</f>
+      <c r="D86" s="55">
+        <f t="shared" si="3"/>
         <v>0.38732394366197187</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="14">
         <v>42.4</v>
       </c>
-      <c r="F86" s="15">
-        <f>E86/$C$52</f>
+      <c r="F86" s="55">
+        <f t="shared" si="4"/>
         <v>0.74647887323943662</v>
       </c>
       <c r="G86" s="2"/>
@@ -6616,21 +6722,21 @@
     </row>
     <row r="87" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
-      <c r="B87" s="13">
+      <c r="B87" s="12">
         <v>165</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="14">
         <v>28.8</v>
       </c>
-      <c r="D87" s="15">
-        <f>C87/$C$52</f>
+      <c r="D87" s="55">
+        <f t="shared" si="3"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="14">
         <v>41.6</v>
       </c>
-      <c r="F87" s="15">
-        <f>E87/$C$52</f>
+      <c r="F87" s="55">
+        <f t="shared" si="4"/>
         <v>0.73239436619718312</v>
       </c>
       <c r="G87" s="2"/>
@@ -6641,21 +6747,21 @@
     </row>
     <row r="88" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
-      <c r="B88" s="13">
+      <c r="B88" s="12">
         <v>180</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="14">
         <v>35.200000000000003</v>
       </c>
-      <c r="D88" s="15">
-        <f>C88/$C$52</f>
+      <c r="D88" s="55">
+        <f t="shared" si="3"/>
         <v>0.61971830985915499</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="14">
         <v>37.6</v>
       </c>
-      <c r="F88" s="15">
-        <f>E88/$C$52</f>
+      <c r="F88" s="55">
+        <f t="shared" si="4"/>
         <v>0.6619718309859155</v>
       </c>
       <c r="G88" s="2"/>
@@ -6666,21 +6772,21 @@
     </row>
     <row r="89" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
-      <c r="B89" s="13">
+      <c r="B89" s="12">
         <v>195</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="14">
         <v>40</v>
       </c>
-      <c r="D89" s="15">
-        <f>C89/$C$52</f>
+      <c r="D89" s="55">
+        <f t="shared" si="3"/>
         <v>0.70422535211267612</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="14">
         <v>30.8</v>
       </c>
-      <c r="F89" s="15">
-        <f>E89/$C$52</f>
+      <c r="F89" s="55">
+        <f t="shared" si="4"/>
         <v>0.54225352112676062</v>
       </c>
       <c r="G89" s="2"/>
@@ -6691,21 +6797,21 @@
     </row>
     <row r="90" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>210</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="14">
         <v>40.799999999999997</v>
       </c>
-      <c r="D90" s="15">
-        <f>C90/$C$52</f>
+      <c r="D90" s="55">
+        <f t="shared" si="3"/>
         <v>0.71830985915492951</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="14">
         <v>23.2</v>
       </c>
-      <c r="F90" s="15">
-        <f>E90/$C$52</f>
+      <c r="F90" s="55">
+        <f t="shared" si="4"/>
         <v>0.40845070422535212</v>
       </c>
       <c r="G90" s="2"/>
@@ -6716,21 +6822,21 @@
     </row>
     <row r="91" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>225</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="14">
         <v>38.799999999999997</v>
       </c>
-      <c r="D91" s="15">
-        <f>C91/$C$52</f>
+      <c r="D91" s="55">
+        <f t="shared" si="3"/>
         <v>0.68309859154929575</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="14">
         <v>17.2</v>
       </c>
-      <c r="F91" s="15">
-        <f>E91/$C$52</f>
+      <c r="F91" s="55">
+        <f t="shared" si="4"/>
         <v>0.30281690140845069</v>
       </c>
       <c r="G91" s="2"/>
@@ -6741,21 +6847,21 @@
     </row>
     <row r="92" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
-      <c r="B92" s="13">
+      <c r="B92" s="12">
         <v>240</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="14">
         <v>34</v>
       </c>
-      <c r="D92" s="15">
-        <f>C92/$C$52</f>
+      <c r="D92" s="55">
+        <f t="shared" si="3"/>
         <v>0.59859154929577463</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="14">
         <v>14</v>
       </c>
-      <c r="F92" s="15">
-        <f>E92/$C$52</f>
+      <c r="F92" s="55">
+        <f t="shared" si="4"/>
         <v>0.24647887323943662</v>
       </c>
       <c r="G92" s="2"/>
@@ -6766,21 +6872,21 @@
     </row>
     <row r="93" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
-      <c r="B93" s="13">
+      <c r="B93" s="12">
         <v>255</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="14">
         <v>27.2</v>
       </c>
-      <c r="D93" s="15">
-        <f>C93/$C$52</f>
+      <c r="D93" s="55">
+        <f t="shared" si="3"/>
         <v>0.47887323943661975</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="14">
         <v>14</v>
       </c>
-      <c r="F93" s="15">
-        <f>E93/$C$52</f>
+      <c r="F93" s="55">
+        <f t="shared" si="4"/>
         <v>0.24647887323943662</v>
       </c>
       <c r="G93" s="2"/>
@@ -6791,21 +6897,21 @@
     </row>
     <row r="94" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
-      <c r="B94" s="13">
+      <c r="B94" s="12">
         <v>270</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="14">
         <v>21.2</v>
       </c>
-      <c r="D94" s="15">
-        <f>C94/$C$52</f>
+      <c r="D94" s="55">
+        <f t="shared" si="3"/>
         <v>0.37323943661971831</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="14">
         <v>18</v>
       </c>
-      <c r="F94" s="15">
-        <f>E94/$C$52</f>
+      <c r="F94" s="55">
+        <f t="shared" si="4"/>
         <v>0.31690140845070425</v>
       </c>
       <c r="G94" s="2"/>
@@ -6816,21 +6922,21 @@
     </row>
     <row r="95" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
-      <c r="B95" s="13">
+      <c r="B95" s="12">
         <v>285</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="14">
         <v>16.399999999999999</v>
       </c>
-      <c r="D95" s="15">
-        <f>C95/$C$52</f>
+      <c r="D95" s="55">
+        <f t="shared" si="3"/>
         <v>0.28873239436619719</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E95" s="14">
         <v>24.8</v>
       </c>
-      <c r="F95" s="15">
-        <f>E95/$C$52</f>
+      <c r="F95" s="55">
+        <f t="shared" si="4"/>
         <v>0.43661971830985918</v>
       </c>
       <c r="G95" s="2"/>
@@ -6841,21 +6947,21 @@
     </row>
     <row r="96" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
-      <c r="B96" s="13">
+      <c r="B96" s="12">
         <v>300</v>
       </c>
-      <c r="C96" s="15">
+      <c r="C96" s="14">
         <v>14.8</v>
       </c>
-      <c r="D96" s="15">
-        <f>C96/$C$52</f>
+      <c r="D96" s="55">
+        <f t="shared" si="3"/>
         <v>0.26056338028169018</v>
       </c>
-      <c r="E96" s="15">
+      <c r="E96" s="14">
         <v>32.4</v>
       </c>
-      <c r="F96" s="15">
-        <f>E96/$C$52</f>
+      <c r="F96" s="55">
+        <f t="shared" si="4"/>
         <v>0.57042253521126762</v>
       </c>
       <c r="G96" s="2"/>
@@ -6866,21 +6972,21 @@
     </row>
     <row r="97" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
-      <c r="B97" s="13">
+      <c r="B97" s="12">
         <v>315</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="14">
         <v>17.2</v>
       </c>
-      <c r="D97" s="15">
-        <f>C97/$C$52</f>
+      <c r="D97" s="55">
+        <f t="shared" si="3"/>
         <v>0.30281690140845069</v>
       </c>
-      <c r="E97" s="15">
+      <c r="E97" s="14">
         <v>38.799999999999997</v>
       </c>
-      <c r="F97" s="15">
-        <f>E97/$C$52</f>
+      <c r="F97" s="55">
+        <f t="shared" si="4"/>
         <v>0.68309859154929575</v>
       </c>
       <c r="G97" s="2"/>
@@ -6891,21 +6997,21 @@
     </row>
     <row r="98" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
-      <c r="B98" s="13">
+      <c r="B98" s="12">
         <v>330</v>
       </c>
-      <c r="C98" s="15">
+      <c r="C98" s="14">
         <v>22</v>
       </c>
-      <c r="D98" s="15">
-        <f>C98/$C$52</f>
+      <c r="D98" s="55">
+        <f t="shared" si="3"/>
         <v>0.38732394366197187</v>
       </c>
-      <c r="E98" s="15">
+      <c r="E98" s="14">
         <v>42.4</v>
       </c>
-      <c r="F98" s="15">
-        <f>E98/$C$52</f>
+      <c r="F98" s="55">
+        <f t="shared" si="4"/>
         <v>0.74647887323943662</v>
       </c>
       <c r="G98" s="2"/>
@@ -6916,21 +7022,21 @@
     </row>
     <row r="99" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
-      <c r="B99" s="13">
+      <c r="B99" s="12">
         <v>345</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="14">
         <v>28.8</v>
       </c>
-      <c r="D99" s="15">
-        <f>C99/$C$52</f>
+      <c r="D99" s="55">
+        <f t="shared" si="3"/>
         <v>0.50704225352112675</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="14">
         <v>41.6</v>
       </c>
-      <c r="F99" s="15">
-        <f>E99/$C$52</f>
+      <c r="F99" s="55">
+        <f t="shared" si="4"/>
         <v>0.73239436619718312</v>
       </c>
       <c r="G99" s="2"/>
@@ -6954,13 +7060,13 @@
     </row>
     <row r="101" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1"/>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="3"/>
@@ -6969,17 +7075,17 @@
     </row>
     <row r="102" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
-      <c r="B102" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="31" t="s">
+      <c r="B102" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="32"/>
-      <c r="E102" s="31" t="s">
+      <c r="D102" s="50"/>
+      <c r="E102" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="32"/>
+      <c r="F102" s="50"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="3"/>
@@ -6988,17 +7094,17 @@
     </row>
     <row r="103" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
-      <c r="B103" s="13">
+      <c r="B103" s="12">
         <v>30</v>
       </c>
-      <c r="C103" s="26">
+      <c r="C103" s="42">
         <v>40.799999999999997</v>
       </c>
-      <c r="D103" s="27"/>
-      <c r="E103" s="26">
+      <c r="D103" s="43"/>
+      <c r="E103" s="42">
         <v>14.8</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="F103" s="43"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="3"/>
@@ -7007,17 +7113,17 @@
     </row>
     <row r="104" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
-      <c r="B104" s="13">
+      <c r="B104" s="12">
         <v>60</v>
       </c>
-      <c r="C104" s="26">
+      <c r="C104" s="42">
         <v>42.4</v>
       </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="26">
+      <c r="D104" s="43"/>
+      <c r="E104" s="42">
         <v>14</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="F104" s="43"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="3"/>
@@ -7032,13 +7138,13 @@
       <c r="K105" s="3"/>
     </row>
     <row r="106" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="3"/>
@@ -7058,17 +7164,17 @@
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B108" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="B108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>37</v>
+      <c r="E108" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -7077,18 +7183,18 @@
       <c r="K108" s="3"/>
     </row>
     <row r="109" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>41</v>
+      <c r="B109" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="E109" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>41</v>
+      <c r="E109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -7097,17 +7203,17 @@
       <c r="K109" s="3"/>
     </row>
     <row r="110" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B110" s="13">
+      <c r="B110" s="12">
         <v>0</v>
       </c>
-      <c r="C110" s="25">
+      <c r="C110" s="23">
         <v>480</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="13">
+      <c r="E110" s="12">
         <v>0</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="23">
         <v>432</v>
       </c>
       <c r="G110" s="2"/>
@@ -7117,17 +7223,17 @@
       <c r="K110" s="3"/>
     </row>
     <row r="111" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B111" s="13">
+      <c r="B111" s="12">
         <v>30</v>
       </c>
-      <c r="C111" s="25">
+      <c r="C111" s="23">
         <v>484</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="13">
+      <c r="E111" s="12">
         <v>45</v>
       </c>
-      <c r="F111" s="25">
+      <c r="F111" s="23">
         <v>432</v>
       </c>
       <c r="G111" s="2"/>
@@ -7137,17 +7243,17 @@
       <c r="K111" s="3"/>
     </row>
     <row r="112" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B112" s="13">
+      <c r="B112" s="12">
         <v>60</v>
       </c>
-      <c r="C112" s="25">
+      <c r="C112" s="23">
         <v>476</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="13">
+      <c r="E112" s="12">
         <v>90</v>
       </c>
-      <c r="F112" s="25">
+      <c r="F112" s="23">
         <v>420</v>
       </c>
       <c r="G112" s="2"/>
@@ -7157,17 +7263,17 @@
       <c r="K112" s="3"/>
     </row>
     <row r="113" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B113" s="13">
+      <c r="B113" s="12">
         <v>90</v>
       </c>
-      <c r="C113" s="25">
+      <c r="C113" s="23">
         <v>468</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="13">
+      <c r="E113" s="12">
         <v>135</v>
       </c>
-      <c r="F113" s="25">
+      <c r="F113" s="23">
         <v>420</v>
       </c>
       <c r="G113" s="2"/>
@@ -7177,17 +7283,17 @@
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B114" s="13">
+      <c r="B114" s="12">
         <v>120</v>
       </c>
-      <c r="C114" s="25">
+      <c r="C114" s="23">
         <v>464</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="13">
+      <c r="E114" s="12">
         <v>180</v>
       </c>
-      <c r="F114" s="25">
+      <c r="F114" s="23">
         <v>432</v>
       </c>
       <c r="G114" s="2"/>
@@ -7197,17 +7303,17 @@
       <c r="K114" s="3"/>
     </row>
     <row r="115" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B115" s="13">
+      <c r="B115" s="12">
         <v>150</v>
       </c>
-      <c r="C115" s="25">
+      <c r="C115" s="23">
         <v>472</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="13">
+      <c r="E115" s="12">
         <v>225</v>
       </c>
-      <c r="F115" s="25">
+      <c r="F115" s="23">
         <v>428</v>
       </c>
       <c r="G115" s="2"/>
@@ -7217,17 +7323,17 @@
       <c r="K115" s="3"/>
     </row>
     <row r="116" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B116" s="13">
+      <c r="B116" s="12">
         <v>180</v>
       </c>
-      <c r="C116" s="25">
+      <c r="C116" s="23">
         <v>480</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="E116" s="13">
+      <c r="E116" s="12">
         <v>270</v>
       </c>
-      <c r="F116" s="25">
+      <c r="F116" s="23">
         <v>420</v>
       </c>
       <c r="G116" s="2"/>
@@ -7237,17 +7343,17 @@
       <c r="K116" s="3"/>
     </row>
     <row r="117" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B117" s="13">
+      <c r="B117" s="12">
         <v>210</v>
       </c>
-      <c r="C117" s="25">
+      <c r="C117" s="23">
         <v>484</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="13">
+      <c r="E117" s="12">
         <v>315</v>
       </c>
-      <c r="F117" s="25">
+      <c r="F117" s="23">
         <v>420</v>
       </c>
       <c r="G117" s="2"/>
@@ -7257,10 +7363,10 @@
       <c r="K117" s="3"/>
     </row>
     <row r="118" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B118" s="13">
+      <c r="B118" s="12">
         <v>240</v>
       </c>
-      <c r="C118" s="25">
+      <c r="C118" s="23">
         <v>476</v>
       </c>
       <c r="D118" s="2"/>
@@ -7273,10 +7379,10 @@
       <c r="K118" s="3"/>
     </row>
     <row r="119" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B119" s="13">
+      <c r="B119" s="12">
         <v>270</v>
       </c>
-      <c r="C119" s="25">
+      <c r="C119" s="23">
         <v>468</v>
       </c>
       <c r="D119" s="2"/>
@@ -7287,18 +7393,18 @@
       <c r="K119" s="3"/>
     </row>
     <row r="120" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B120" s="13">
+      <c r="B120" s="12">
         <v>300</v>
       </c>
-      <c r="C120" s="25">
+      <c r="C120" s="23">
         <v>464</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>39</v>
+      <c r="E120" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -7307,18 +7413,18 @@
       <c r="K120" s="3"/>
     </row>
     <row r="121" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B121" s="13">
+      <c r="B121" s="12">
         <v>330</v>
       </c>
-      <c r="C121" s="25">
+      <c r="C121" s="23">
         <v>468</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="E121" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>40</v>
+      <c r="E121" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -18349,6 +18455,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="B101:F101"/>
     <mergeCell ref="B74:B75"/>
     <mergeCell ref="B106:F106"/>
     <mergeCell ref="B4:E4"/>
@@ -18365,15 +18480,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="E74:F74"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -18390,7 +18496,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -18408,26 +18514,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="51"/>
+      <c r="A3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="32"/>
       <c r="K3" s="54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L3" s="54"/>
       <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="48">
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29">
         <v>0.99232681499069819</v>
       </c>
       <c r="K4">
@@ -18438,83 +18544,83 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f>K4*$B$18</f>
+        <f t="shared" ref="M4:M23" si="0">K4*$B$18</f>
         <v>106.20097749896399</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="48">
+      <c r="A5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="29">
         <v>0.9847125077495833</v>
       </c>
       <c r="K5">
         <v>0.9698463103929541</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L23" si="0">M5/$M$4</f>
+        <f t="shared" ref="L5:L23" si="1">M5/$M$4</f>
         <v>0.96984631039295399</v>
       </c>
       <c r="M5">
-        <f>K5*$B$18</f>
+        <f t="shared" si="0"/>
         <v>102.99862618749536</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="A6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="29">
         <v>0.98386320262456017</v>
       </c>
       <c r="K6">
         <v>0.88302222155948906</v>
       </c>
       <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.88302222155948906</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>0.88302222155948906</v>
-      </c>
-      <c r="M6">
-        <f>K6*$B$18</f>
         <v>93.777823082924499</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="48">
+      <c r="A7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="29">
         <v>4.9191175864800556</v>
       </c>
       <c r="K7">
         <v>0.75000000000000011</v>
       </c>
       <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="M7">
-        <f>K7*$B$18</f>
         <v>79.650733124223009</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="49">
+      <c r="A8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="30">
         <v>20</v>
       </c>
       <c r="K8">
         <v>0.58682408883346515</v>
       </c>
       <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.58682408883346515</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>0.58682408883346515</v>
-      </c>
-      <c r="M8">
-        <f>K8*$B$18</f>
         <v>62.32129185405288</v>
       </c>
     </row>
@@ -18523,139 +18629,139 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="M9">
-        <f>K9*$B$18</f>
         <v>53.100488749482011</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0.41317591116653485</v>
       </c>
       <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.41317591116653485</v>
-      </c>
-      <c r="M10">
-        <f>K10*$B$18</f>
         <v>43.879685644911113</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="F11" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>58</v>
       </c>
       <c r="K11">
         <v>0.25000000000000011</v>
       </c>
       <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>0.25000000000000011</v>
-      </c>
-      <c r="M11">
-        <f>K11*$B$18</f>
         <v>26.550244374741009</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="48">
+      <c r="A12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="29">
         <v>1</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="29">
         <v>28055.635959066887</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="29">
         <v>28055.635959066887</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="29">
         <v>1159.4331397950073</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="29">
         <v>8.5174583404405165E-18</v>
       </c>
       <c r="K12">
         <v>0.11697777844051105</v>
       </c>
       <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.11697777844051105</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>0.11697777844051105</v>
-      </c>
-      <c r="M12">
-        <f>K12*$B$18</f>
         <v>12.423154416039509</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="48">
+      <c r="A13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="29">
         <v>18</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="29">
         <v>435.55892093311257</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="29">
         <v>24.197717829617364</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="K13">
         <v>3.0153689607045831E-2</v>
       </c>
       <c r="L13">
+        <f t="shared" si="1"/>
+        <v>3.0153689607045831E-2</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>3.0153689607045831E-2</v>
-      </c>
-      <c r="M13">
-        <f>K13*$B$18</f>
         <v>3.2023513114686186</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="49">
+      <c r="A14" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="30">
         <v>19</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="30">
         <v>28491.194879999999</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="K14">
         <v>3.7524718414124473E-33</v>
       </c>
       <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3.7524718414124466E-33</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>3.7524718414124466E-33</v>
-      </c>
-      <c r="M14">
-        <f>K14*$B$18</f>
         <v>3.9851617759533926E-31</v>
       </c>
     </row>
@@ -18664,129 +18770,129 @@
         <v>3.0153689607045793E-2</v>
       </c>
       <c r="L15">
+        <f t="shared" si="1"/>
+        <v>3.0153689607045793E-2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>3.0153689607045793E-2</v>
-      </c>
-      <c r="M15">
-        <f>K15*$B$18</f>
         <v>3.2023513114686146</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="G16" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="H16" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="I16" s="31" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="50" t="s">
-        <v>65</v>
       </c>
       <c r="K16">
         <v>0.11697777844051097</v>
       </c>
       <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.11697777844051097</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>0.11697777844051097</v>
-      </c>
-      <c r="M16">
-        <f>K16*$B$18</f>
         <v>12.4231544160395</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="48">
+      <c r="A17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="29">
         <v>1.468486813043981</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="29">
         <v>1.9725846760684518</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="29">
         <v>0.74444804872499282</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="29">
         <v>0.46621421592254753</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="29">
         <v>-2.675759809149957</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="29">
         <v>5.612733435237919</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="29">
         <v>-2.675759809149957</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="29">
         <v>5.612733435237919</v>
       </c>
       <c r="K17">
         <v>0.24999999999999978</v>
       </c>
       <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>0.24999999999999978</v>
-      </c>
-      <c r="M17">
-        <f>K17*$B$18</f>
         <v>26.550244374740974</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="52">
+      <c r="A18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="33">
         <v>106.20097749896399</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="33">
         <v>3.1189302269608725</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="30">
         <v>34.050449920595852</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="30">
         <v>8.5174583404406983E-18</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="30">
         <v>99.648348243167774</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="30">
         <v>112.75360675475993</v>
       </c>
-      <c r="H18" s="49">
+      <c r="H18" s="30">
         <v>99.648348243167774</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="30">
         <v>112.75360675475993</v>
       </c>
       <c r="K18">
         <v>0.41317591116653485</v>
       </c>
       <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.41317591116653485</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>0.41317591116653485</v>
-      </c>
-      <c r="M18">
-        <f>K18*$B$18</f>
         <v>43.879685644911113</v>
       </c>
     </row>
@@ -18795,11 +18901,11 @@
         <v>0.58682408883346493</v>
       </c>
       <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.58682408883346493</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>0.58682408883346493</v>
-      </c>
-      <c r="M19">
-        <f>K19*$B$18</f>
         <v>62.321291854052859</v>
       </c>
     </row>
@@ -18808,11 +18914,11 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="M20">
-        <f>K20*$B$18</f>
         <v>79.650733124223009</v>
       </c>
     </row>
@@ -18821,11 +18927,11 @@
         <v>0.88302222155948884</v>
       </c>
       <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.88302222155948884</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>0.88302222155948884</v>
-      </c>
-      <c r="M21">
-        <f>K21*$B$18</f>
         <v>93.777823082924471</v>
       </c>
     </row>
@@ -18834,11 +18940,11 @@
         <v>0.9698463103929541</v>
       </c>
       <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.96984631039295399</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>0.96984631039295399</v>
-      </c>
-      <c r="M22">
-        <f>K22*$B$18</f>
         <v>102.99862618749536</v>
       </c>
     </row>
@@ -18847,11 +18953,11 @@
         <v>1</v>
       </c>
       <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <f>K23*$B$18</f>
         <v>106.20097749896399</v>
       </c>
     </row>
